--- a/excel/Outreach Northern Companies.xlsx
+++ b/excel/Outreach Northern Companies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arons\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA664FC2-F27F-4F2D-AD87-72B5BE787714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB3E9A2-A8AE-4FB9-9B7B-4F0AD73C08C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="3600" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30150" yWindow="1695" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avi Approved Tefen" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1343">
   <si>
     <t>Company</t>
   </si>
@@ -4317,6 +4317,15 @@
   </si>
   <si>
     <t>aharon@navitechaid.com</t>
+  </si>
+  <si>
+    <t>1st Email Sent</t>
+  </si>
+  <si>
+    <t>2nd Email Sent</t>
+  </si>
+  <si>
+    <t>3rd Email Sent</t>
   </si>
 </sst>
 </file>
@@ -7679,7 +7688,7 @@
   <dimension ref="A1:AF1045"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7695,7 +7704,7 @@
     <col min="10" max="10" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="51">
+    <row r="1" spans="1:32" ht="76.5">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -7728,19 +7737,19 @@
       </c>
       <c r="K1" s="50"/>
       <c r="L1" s="50" t="s">
-        <v>200</v>
+        <v>1340</v>
       </c>
       <c r="M1" s="50" t="s">
         <v>227</v>
       </c>
       <c r="N1" s="50" t="s">
-        <v>201</v>
+        <v>1341</v>
       </c>
       <c r="O1" s="50" t="s">
         <v>227</v>
       </c>
       <c r="P1" s="50" t="s">
-        <v>202</v>
+        <v>1342</v>
       </c>
       <c r="Q1" s="50" t="s">
         <v>227</v>
